--- a/deuChatbot/research_result/results/rouge_score/rouge_version_2(3500_200).xlsx
+++ b/deuChatbot/research_result/results/rouge_score/rouge_version_2(3500_200).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F204"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7460,79 +7460,4124 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 주로 시각디자인, 산업디자인, 공예디자인이 포함되며, 각 분야별로 다음과 같은 구성을 가지고 있습니다:
+1. **실기종목**: 
+   - **기초디자인**
+   - **사고의 전환**
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**: 
+   주제A와 주제B를 각각 1개씩 선택하여 연결된 주제로 당일 추첨을 통해 결정합니다.
+   - 예시: 잠자리와 저울 (주제A: 잠자리, 주제B: 저울)
+4. **화지크기**: 
+   켄트지3절
+5. **시험기간**: 5시간
+이러한 실기시험은 학생들의 창의성과 표현 능력을 평가하기 위해 설계되었습니다. 준비물과 주제를 잘 이해하고, 다양한 도구를 활용하여 주제와 관련된 작품을 완성해야 합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.4141930521671437</v>
+        <v>0.4369114877589454</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2780356988771585</v>
+        <v>0.2041587901701323</v>
       </c>
       <c r="F202" t="n">
-        <v>0.3645132195450205</v>
+        <v>0.3050847457627118</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목은 시각디자인 / 산업디자인 / 공예디자인이며, 실기종목별로 다음과 같은 정보가 있습니다:
+1. **실기종목**: 기초디자인, 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+   - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+4. **화지크기**: 켄트지3절
+5. **시간**: 5시간
+주의: 각 실기종목은 주제A와 주제B 중에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+이 정보는 디자인조형학과의 시각디자인, 산업디자인, 공예디자인 실기종목에 대해 제공됩니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2834238911147506</v>
+        <v>0.5369127516778524</v>
       </c>
       <c r="E203" t="n">
-        <v>0.1352650919230308</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="F203" t="n">
-        <v>0.2250456170010328</v>
+        <v>0.4340044742729307</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2024학년도 경기지도학과의 모집요강에 따르면, 경기지도학과 모집을 위한 종목별 인정대회는 다음과 같습니다:
+1. 배드민턴(남)
+   - 등급 1: 현·전 국가대표 (점수 700)
+   - 등급 2: 2023년도 전국대회 개인전 3위 이내 입상자 (점수 600)
+   - 등급 3: 국가대표 후보선수(주니어대표 경력 합숙훈련 3년 이상) / 2023년도 전국대회 단체전 1위 입상자 / 2021~2022년도 전국대회 개인전 2위 이내 입상자 (점수 500)
+   - 등급 4: 국가대표 후보선수(주니어대표 경력 합숙훈련 2년 이상) / 2023년도 전국대회 단체전 2~3위 입상자 / 2023년도 전국대회 개인전 8강 입상자 / 2021~2022년도 전국대회 개인전 3위 입상자 (점수 400)
+   - 등급 5: 국가대표 후보선수(주니어대표 경력 합숙훈련 1년 이상) / 2023년도 전국대회 단체전 8강 이내 입상자 / 2023년도 전국대회 개인전 16강 입상자 / 2021~2022년도 전국대회 개인전 8강 입상자 / 2023년도 광역시·도 대회 개인전 4강 이내 입상자 (점수 300)
+   - 등급 6: 2023년도 전국대회 개인전 32강 입상자 / 2021~2022년도 전국대회 개인전 16강 입상자 / 2023년도 전국대회 단체전 16강 이내 입상자 / 2021~2022년도 광역시·도 대회 개인전 8강 이내 입상자 (점수 0)
+2. 축구(남)
+   - 등급 1: 현·전 청소년대표, 국가대표 / 2023년 전국대회 우승 및 준우승 입상자 중 경기출전 70% 이상 선수 / 2023년 권역별고교축구리그 우승 입상자 중 경기출전 70% 이상 선수 / 2023년 K리그 U-18 챔피언십의 4위 이내 입상자 중 경기출전 70% 이상 선수 (점수 700)
+   - 등급 2: 2023년 전국대회 우승 및 준우승 입상자 중 경기출전 60% 이상 선수 / 2023년 전국대회 4강 입상자 중 경기출전 70% 이상 선수 / 2023년 권역별고교축구리그 2위 입상자 중 경기출전 70% 이상 선수 / 2023년 K리그 U-18 챔피언십의 8위 이내입상자 중 경기출전 70% 이상 선수 (점수 600)
+   - 등급 3: 2023년 전국대회 4강 입상자 중 경기출전 60% 이상 선수 / 2023년 전국대회 8강 입상자 중 경기출전 80% 이상 선수 / 2023년 권역별고교축구리그 3위 입상자 중 경기출전 70% 이상 선수 / 2023년 K리그 U-18 챔피언십의 경기출전 70% 이상 선수 (점수 500)
+   - 등급 4: 2023년 전국대회 4강 입상자 중 경기출전 50% 이상 선수 / 2023년 전국대회 8강 입상자 중 경기출전 70% 이상 선수 / 2023년 권역별고교축구리그 4위 이내 및 K리그 U-18 챔피언십의 경기출전 40% 이상 선수 (점수 400)
+   - 등급 5: 2023년 전국대회 4강 입상자 중 경기출전 40% 이상 선수 / 2023년 전국대회 8강 입상자 중 경기출전 60% 이상 선수 / 2023년 K리그 U-18 챔피언십의 경기출전 30% 이상 선수 (점수 300)
+   - 등급 6: 2023년도 전국대회 개인전 32강 입상자 / 2021~2022년도 전국대회 개인전 16강 입상자 / 2023년도 전국대회 단체전 16강 이내 입상자 / 2021~2022년도 광역시·도 대회 개인전 8강 이내 입상자 (점수 0)
+이러한 대회의 등급별로 점수가 다르게 반영되며, 최종 합격 여부는 종합적으로 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.2330508474576271</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.07006369426751592</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.1758474576271186</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 중 각각 하나를 선택하여 연결된 주제로 시험을 치릅니다. 예시 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+수험생들은 당일에 이 주제들 중에서 각각 하나를 선택하여 연결된 주제로 문제를 해결해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.6304347826086958</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.5434782608695652</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도의 전형요소 반영비율을 살펴보면, 대부분의 경우 학생부교과와 관련된 전형에서는 출결 점수가 반영되지 않습니다. 
+예를 들어:
+- 가군 수능(일반학생전형)에서는 학생부 교과가 0%이고 출결도 0%입니다.
+- 나군 수능(일반학생전형) 한의예과에서는 학생부 교과가 0%이고 출결도 0%입니다.
+- 다군 수능(일반학생전형)에서는 학생부 교과가 0%이고 출결도 0%입니다.
+따라서, 일반적으로 학생부교과 전형에서 출결 점수는 반영되지 않습니다. 하지만 특정 전형이나 모집단위에서는 예외적으로 출결이 반영될 수 있으므로, 구체적인 모집단위의 정보를 확인하시기 바랍니다.
+더 자세한 내용이 필요하시면 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.1468926553672316</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.1355932203389831</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 9명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.8292682926829269</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.7692307692307692</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.8292682926829269</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이고, 모집인원은 28명입니다. 이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.3658536585365854</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.2926829268292683</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다. 의료·보건·생활대학 간호학과 - 교직 - 간호교육인증의 정원 내 모집 인원은 110명으로, 나군 일반 학생 모집 인원이 22명이라는 정보가 제공되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.1587301587301587</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是根据韩语原文整理的英语等级对应的分数：
+- 等级1：139分
+- 等级2：131分  
+- 等级3：123分
+- 等级4：115分
+- 等级5：107分
+- 等级6：99分
+- 等级7：91分
+- 等级8：83分
+- 等级9：75分</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.3768115942028986</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.3768115942028986</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 나군 학생부교과(농어촌학생전형)의 지원 자격을 살펴보면:
+- 일반고, 자율고, 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고, 특성화고(특성), 특성화고(대안), 영재학교, 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고 모두 지원 가능합니다.
+따라서 예술고 학생도 나군 학생부교과(농어촌학생전형)로 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.4415584415584415</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.3506493506493506</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4등급의 제자리 멀리뛰기 기록은 276~279cm이며, 배점은 325점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.3181818181818182</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과에서 출결의 반영 비율은 12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+관련 정보는 다음과 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **모집단위**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+- **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.
+이 정보를 참고해 주세요.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.1592920353982301</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.1261261261261261</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.1592920353982301</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 하지만, 일반적으로 수능 최저기준이 없는 경우가 많으므로 다음과 같이 답변할 수 있습니다:
+- 제공된 정보에서는 응용화학과의 수능 최저기준에 대한 내용이 명시되어 있지 않습니다.
+- 다른 학과와 마찬가지로 응용화학과도 수능 위주 전형으로 운영되는 것으로 보입니다.
+- 대부분의 경우, 수능 위주 전형에서는 수능 최저기준이 설정되지 않을 가능성이 높습니다.
+따라서 정확한 정보를 얻으려면 동의대학교 입학처나 공식 홈페이지를 통해 확인하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과 정보는 제공된 자료에서는 확인할 수 없습니다. 하지만, 일부 신설 또는 개편된 학과들에 대한 정보가 다음과 같습니다:
+1. 미래융합대학 - 라이프융합학부 (신설)
+   - 신설 과정: 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학
+2. 미래융합대학 - 부동산자산경영학부 (신설)
+3. IT융합부품소재공과대학 - 미래형자동차학과 (신설)
+4. 공과대학 - 응용화학과 (정원 내 모집 인원: 31명)
+   - 이 과는 신설된 것으로 보이지만, 정확한 날짜는 자료에서 확인할 수 없습니다.
+5. 공과대학 - 의생명공학과 (정원 내 모집 인원: 20명)
+6. 공과대학 - 식품공학과 (정원 내 모집 인원: 20명)
+7. 공과대학 - 산업경영빅데이터공학과 (정원 내 모집 인원: 45명)
+8. ICT융합공과대학 - 소프트웨어공학부 (컴퓨터소프트웨어공학, 응용소프트웨어공학) (정원 내 모집 인원: 120명)
+9. ICT융합공과대학 - 인공지능학과 (정원 내 모집 인원: 40명)
+위와 같은 학과들이 신설 또는 확대되었음을 알 수 있지만, 2024학년도에 정식으로 신설된 학과는 미래융합대학의 라이프융합학부와 부동산자산경영학부, 그리고 IT융합부품소재공과대학의 미래형자동차학과로 보입니다. 자세한 정보는 동의대학교 입학처 웹사이트나 관련 공문을 확인하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.2513661202185792</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.1703296703296703</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.1912568306010929</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 학생부 교과: 0%
+- 출결: 0%
+- 서류: 70%
+- 면접: 30%
+- 실기: 0%
+- 수능: 0%
+수능최저기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.4130434782608696</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.5531914893617023</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>东义大学在以下学部中对数学成绩进行加分：
+- 公工学部：对于选考数学(微积分或几何)的考生，数学标准分加10%。
+因此，在公工学部的一些专业（如应用化学、生物医学工程、食品工程等）中会适用这个加分政策。具体哪些专业适用需要查看学校的详细招生简章。</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서 수능 성적은 다음과 같이 반영됩니다:
+- **모집단위**: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+- **수능 반영 영역 및 비율**:
+  - 국어(화법과작문 or 언어와매체): 25%
+  - 수학(확률과통계 or 미적분 or 기하): 25%
+  - 영어: 25%
+  - 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목 합): 25%
+- **가산점**: 가산점이 없습니다.
+따라서, 수능 성적은 국어, 수학, 영어, 탐구 영역의 표준점수와 등급 점수를 각각 25%씩 반영하며, 이들 영역 중 상위 3개 영역을 합산하여 최종 점수를 산출합니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.223404255319149</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.1702127659574468</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 열립니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.7272727272727272</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 다음과 같은 모집단위는 제외됩니다:
+- 한의예과
+- 디자인조형학과
+- 체육학과 
+- 경기지도학과
+이 외에는 전반적으로 모든 모집단위가 포함되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.5747126436781609</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.5057471264367817</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교의 다군 전형에 대한 정보는 제공된 자료에서는 확인할 수 없습니다. 하지만 일반적으로 대학별로 다군 전형에서 수능 최저기준을 설정하는 경우가 많습니다. 
+다군 전형은 특정 지역 출신 학생들을 위한 특별한 지원 기회를 제공하기 위해 운영되며, 이에 따른 수능 최저기준이 적용되는 경우가 일반적입니다.
+만약 동국대학교의 다군 전형에서도 수능 최저기준을 설정하고 있다면, 해당 정보는 추가적인 자료 검색을 통해 얻을 수 있을 것입니다. 대학 홈페이지나 입시 안내서를 확인하시거나, 입학처에 직접 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.1232876712328767</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.1891891891891892</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 레저스포츠학과와 태권도학과가 학부에서 학과로 분리되었습니다. 이는 전형일정에서 실기고사 일정이 변경되었음을 의미하며, 이들 학과는 &lt;가&gt;군 실기고사와 &lt;나&gt;군 실기고사를 각각 진행하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.08060453400503778</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.03544303797468355</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.06045340050377834</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 2024학년도 전형일정에서 원서접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **학생부종합전형**:
+   - **나군**: 면접평가 방법에서 '면접방법' 항목이 추가되었습니다. 이전에는 개별면접만 있었습니다.
+   - **다군**: 동점자 처리기준에서 순위 3위가 추가되었으며, 동점자 처리 기준도 변경되었습니다.
+2. **학생부교과전형**:
+   - **나군**: 지원자격에서 '6년 과정' 유형의 지원 자격이 추가되었습니다.
+   - **다군**: 최종등록자 추가 제출서류 항목이 추가되었습니다.
+3. **평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형**:
+   - **나군**: 서류평가 영역별 세부 평가 기준에서 '전형자료의 유의미성' 항목이 추가되었습니다.
+   - **다군**: 동점자 처리기준에서 순위 3위가 추가되었으며, 동점자 처리 기준도 변경되었습니다.
+4. **조기취업형계약학과전형**:
+   - **나군**: 서류평가 영역별 세부 평가 기준에서 '전형자료의 유의미성' 항목이 추가되었습니다.
+   - **다군**: 동점자 처리기준에서 순위 3위가 추가되었으며, 동점자 처리 기준도 변경되었습니다.
+5. **경기실적우수자전형**:
+   - **나군**: 동점자 처리기준에서 순위 4위와 5위가 추가되었습니다.
+   - **다군**: 동점자 처리기준에서 순위 3위가 추가되었으며, 동점자 처리 기준도 변경되었습니다.
+6. **농어촌학생전형**:
+   - **나군**: 최종등록자 추가 제출서류 항목이 추가되었습니다.
+   - **다군**: 동점자 처리기준에서 순위 3위가 추가되었으며, 동점자 처리 기준도 변경되었습니다.
+이러한 변화들은 각 전형의 평가 요소를 보완하고 공정성을 높이기 위한 조치로 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.2402669632925473</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.09587513935340021</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.1401557285873193</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 다음과 같습니다:
+- 레저스포츠학과, 태권도학과에서는 실기가 70%입니다.
+- 기타 모집단위에서는 실기는 없습니다 (-).
+따라서, 특정 학과에 따라 실기 비중이 달라지는데, 레저스포츠학과와 태권도학과의 경우 70%가 실기 비중이며, 다른 학과는 실기가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.3260869565217391</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공을 포함하고 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이러한 세부 전공들은 미래 융합 분야에서의 새로운 기회와 요구에 대응하기 위해 설계되었으며, 학생들이 다양한 산업과 사회적 변화에 적극적으로 대처할 수 있도록 교육을 제공합니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.288135593220339</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.3833333333333333</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 디자인조형학과 (시각디자인 / 산업디자인 / 공예디자인)
+   - 기초디자인, 사고의 전환
+2. 체육학과
+   - 제자리 멀리뛰기
+   - 메디신볼 던지기
+   - Z-런
+이러한 학과들은 해당 학과에 지원하는 지원자가 실기고사를 치러야 합니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.4036697247706422</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.280373831775701</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.3669724770642202</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>东义大学2024学年实绩为主入学类型可申请的专业包括：
+1. 基地业绩优秀生入学类型（Na-gong）：
+   - 排球(男)：体育教育训练学
+   - 足球(男)：体育教育训练学
+2. 实践技能/实绩(经绩效优异者入学类型)（Na-gong）：
+   - 排球(男)：体育教育训练学
+   - 足球(男)：体育教育训练学
+3. 平生学习者、成人学习者（正选和候补名额）、在职人员入学类型（Na-gong）：
+   - 智能汽车学：智能汽车技术与服务
+   - 未来型汽车学：未来型汽车技术与服务
+   - 软件融合学：软件融合应用
+4. 高等教育提前就业合同专业入学类型（正选和候补名额）（Na-gong）：
+   - 智能酒店管理学：智能酒店管理
+   - 未来型汽车学：未来型汽车技术与服务
+   - 软件融合学：软件融合应用
+综上所述，东义大学2024年实绩为主入学类型的可申请专业主要集中在体育教育训练学、智能汽车技术和软件融合应用等领域。具体选择哪个专业还需根据你的兴趣和特长来决定。</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.145985401459854</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.05925925925925926</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.1313868613138686</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교 미래융합대학 라이프융합학부는 다음과 같은 전공을 신설하였습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+따라서, 동의대학교 라이프융합학부에서는 3개의 전공 과정을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.4318181818181818</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.5555555555555555</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형에 지원이 가능합니다. 
+특수목적고등학교 중 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 등 모두 동의대학교 일반학생전형의 지원 자격에 해당됩니다.
+따라서, 특수목적고등학교 학생으로서도 동의대학교의 수능 (일반학생전형), 실기/실적 (일반학생전형) 등을 포함한 다양한 전형을 통해 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.3795620437956204</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.1925925925925926</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.2773722627737226</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별 정원 내 모집 인원을 비교해야 합니다. 제공된 정보를 바탕으로, 다음과 같은 결론을 도출할 수 있습니다:
+1. **공과대학**:
+   - 기계공학과: 17명
+   - 로봇자동화공학과: 0명
+   - 자동차공학과: 7명
+   - 조선해양공학과: 26명
+   - 신소재공학과: 32명
+   - 고분자나노공학과: 26명
+   - 건축공학과(5년제): 0명
+2. **의료·보건·생활대학**:
+   - 방사선학과: 2명
+   - 식품영양학과 - 교직: 5명
+   - 물리치료학과: 0명
+3. **한의과대학**:
+   - 한의예과 수학(미적분/기하): 12명
+   - 한의예과 수학(확률과 통계): 4명
+4. **인문사회과학대학**:
+   - 법학과: 0명 (가군 전형)
+   - 영어영문학과 - 교직: 5명 (가군 전형)
+5. **미래융합대학**:
+   - 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학): 11명
+   - 부동산자산경영학부(부동산투자학, 부동산개발경영학): 7명
+6. **상경대학**:
+   - 경영정보학과: 7명
+   - e비즈니스학과: 10명
+7. **IT융합부품소재공과대학**:
+   - 미래형자동차학과: 7명
+8. **ICT공과대학**:
+   - 소프트웨어융합학과: 7명
+   - 스마트호스피탈리티학과: 7명
+9. **ICT융합공과대학**:
+   - 소프트웨어공학부(컴퓨터소프트웨어공학 - 공학, 응용소프트웨어공학): 45명
+   - 산업경영빅데이터공학과: 45명
+10. **공과대학**:
+    - 응용화학과: 22명
+    - 의생명공학과: 20명
+    - 식품공학과: 20명
+이 중에서 가장 많은 정원 내 모집 인원을 보이는 학과는 **ICT융합공과대학의 소프트웨어공학부(컴퓨터소프트웨어공학 - 공학, 응용소프트웨어공학)**와 산업경영빅데이터공학과로 각각 45명씩 모집하고 있습니다. 이 두 학과가 나군 전형에서 가장 많이 모집하는 학과라고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.1214574898785425</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.06097560975609755</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.0931174089068826</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，根据提供的信息，你有可能符合东义大学学生部教科农村学生选拔的条件。具体来说：
+1. **支持资格**：
+   - 特殊高中（科学高中、国际高中、外语高中）的学生是可以申请的。
+2. **申请资格**：
+   - 你需要满足以下条件之一：
+     - 在农村（镇·村）地区就读并完成整个中学教育过程，并且在中学学习期间，你本人和父母双方（如果父母一方去世或离婚，则不包括该方）都居住在农村（镇·村）地区。
+     - 父母的居住地与无关紧要，但你需要证明你在农村（镇·村）地区的初中、高中全程教育过程。
+3. **提交材料**：
+   - 6年制课程：需要提供以下文件
+     - 身份关系证明书1份
+     - 你本人及父母的户籍登记簿副本各1份（总计3份）
+     - 初中学生学业记录表1份
+     - 高中学生学业记录表1份（未在线提供的学校或不同意的学生需要提交）
+   - 12年制课程：需要提供以下文件
+     - 你的户籍登记簿副本1份
+     - 小学学生学业记录表1份
+     - 初中学生学业记录表1份
+     - 高中学生学业记录表1份（未在线提供的学校或不同意的学生需要提交）
+建议你仔细检查自己的情况是否符合上述条件，并准备相应的材料。如果有任何疑问，可以访问东义大学的官方网站 https://ipsi.deu.ac.kr/main.do 获取更多信息或直接咨询招生办公室以确认具体要求和流程。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.03870967741935484</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.03870967741935484</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최종등록자의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 434.70입니다.
+따라서, 주어진 정보 중에서 소프트웨어공학부 합격자의 평균 성적을 나타내는 것은 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균인 434.70이라고 할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.109375</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.1692307692307692</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **330.11**입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.2777777777777777</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2023년 경기대학교의 정시모집 합격자 발표 일정에 대한 명확한 정보는 제공되지 않았습니다. 일반적으로 대학별로 합격자 발표일은 공지나 입학처 홈페이지를 통해 공식으로 안내됩니다.
+대부분의 대학들은 다음 기준일을 참고로 합격자를 발표합니다:
+1. 정시모집 원서접수 마감 후 2-3주 정도 소요됨
+2. 2023년 1월 중순부터 하순 사이에 발표될 것으로 예상됨
+정확한 날짜를 확인하려면 다음과 같은 방법을 추천드립니다:
+1. 경기대학교 입학처 홈페이지를 방문하여 공지사항 확인
+2. 대학 입학상담실 연락하기
+3. 소속 학과 담당 교수에게 문의하기
+합격자 발표일정이 변경될 수 있으므로, 최신 정보는 공식 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.2122448979591837</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.05761316872427983</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.1551020408163265</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>给您提供的信息中并没有提到具体的面试考试时间。通常，学校会在招生简章或官方网站上公布具体的面试考试安排，包括日期、时间和地点等详细信息。
+为了获取准确的面试考试时间，请您：
+1. 访问学校的官方网站；
+2. 查看最新的招生简章或公告；
+3. 联系学校的招生办公室进行确认。
+如果有其他相关问题或者需要进一步的帮助，请随时告诉我！</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.09374999999999999</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.09374999999999999</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과 최저학력기준 정보는 제공되지 않았습니다. 하지만 일반적으로 한의예과의 지원 자격은 다음과 같은 특징을 가질 수 있습니다:
+1. 수능 응시 요건:
+   - 수학(미적분 또는 기하) 과목 응시 필요
+   - 일부 대학에서는 수학(확률과 통계)도 인정할 수 있음
+2. 학력 요구:
+   - 고등학교 졸업 자격이 필요함
+3. 추가 요건:
+   - 특정 대학에서는 특별한 지원 자격 조건을 두고 있을 수 있음 (예: 특정 과목 성적 기준 등)
+4. 경쟁률과 합격 점수:
+   - 각 대학마다 다르므로, 정확한 최저학력기준은 해당 대학의 공식 입시 안내를 확인해야 합니다
+5. 추가 지원 자격:
+   - 일부 대학에서는 특별한 지원 자격 조건을 두고 있을 수 있음 (예: 특정 활동 경력 등)
+따라서 정확한 한의예과 최저학력기준은 각 대학의 공식 입시 안내를 확인하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.07766990291262134</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.0392156862745098</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.07766990291262134</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 다음과 같은 전형들의 경우 수능 최저학력 기준이 없습니다:
+1. 가군 수능(일반학생전형) - 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. 나군 수능(일반학생전형) - 한의예과(수학(미적분/기하), 수학(확률과 통계))를 제외한 전 모집단위
+3. 다군 수능(일반학생전형) 
+이 외의 전형들은 일반적으로 수능 최저학력 기준을 두고 있습니다.
+따라서, 위에서 언급된 전형들만 수능 최저학력기준이 없으며, 다른 전형들은 해당 학과별로 수능 최저학력기준을 설정하고 있는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.0915032679738562</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.06622516556291391</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.0915032679738562</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024. 02. 14.(수) 09:00와 2024. 02. 15.(목) 09:00에 두 차례에 걸쳐 충원합격자 발표가 이루어집니다.
+특히, 각각의 일정은 다음과 같습니다:
+- 2024. 02. 14.(수) 09:00 : 첫 번째 충원 합격자 발표
+- 2024. 02. 15.(목) 09:00 : 두 번째 충원 합격자 발표
+이후에는 2024. 02. 15.(목) 19:00부터 개별 전화통보를 통해 추가적인 충원합격자를 발표하게 됩니다.
+발표 방식은 모두 홈페이지에서 개별 조회 가능하며, 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령이 가능합니다. 등록장소는 학교 지정은행으로, 등록금 고지서에 기재된 정보를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.3482142857142858</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.2072072072072072</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.2589285714285714</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024학년도 추가합격자 발표 일정은 다음과 같습니다:
+- 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+- 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+- 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00~16:00
+따라서 추가합격자 발표 일정은:
+- 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+- 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+- 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00~16:00
+위 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.3534136546184738</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.194331983805668</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.2891566265060241</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到是否进行额外招生（추가모집）的内容。为了得到准确答案，建议访问以下网站以获取最新和详细的信息：
+https://ipsi.deu.ac.kr/main.do
+您可以登录该网站查看最新的招生公告或联系学校的招生办公室以获得确切的招生计划详情。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.05714285714285715</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.02941176470588236</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.05714285714285715</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학에서 다양한 학습경험을 가진 성인 학습자를 위한 특별한 입학 전형입니다. 주요 내용은 다음과 같습니다:
+1. **모집단위 및 모집인원**:
+   - 단과대학: 미래융합대학
+   - 계열: 인문사회
+   - 모집단위: 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+   - 전형명: 학생부종합(평생학습자전형), 학생부종합(성인학습자(정원내·외)전형), 학생부종합(재직자전형)
+2. **모집인원**:
+   - 학생부종합(평생학습자전형): 11명
+   - 학생부종합(성인학습자(정원내·외)전형): 43명 (정원내: 7명, 정원외: 23명)
+   - 학생부종합(재직자전형): 7명
+3. **지원자격**:
+   - 산업체 적용범위: 국가·지방자치단체 및 공공단체, 근로기준법 제11조에 의거 상시근로자 5인 이상 사업체, 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+   - 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상
+4. **전형요소 반영비율**:
+   - 학생부종합(평생학습자전형): 서류 70%, 면접 30%
+   - 학생부종합(성인학습자(정원내·외)전형): 서류 70%, 면접 30%
+   - 학생부종합(재직자전형): 서류 70%, 면접 30%
+5. **제출서류**:
+   - 고교 졸업(예정)자: 고교 학교생활기록부 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 검정고시출신자: 검정고시 합격증서 사본, 검정고시 성적증명서, 학교생활기록부 대체 서류(제출여부 선택 가능)
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서, 학교생활기록부 대체 서류 (제출여부 선택 가능)
+6. **면접평가**:
+   - 면접종류: 개별면접
+   - 면접시간: 1인당 10분 이내
+   - 면접방법: 입학사정관 2~3인이 평가위원이 되어 수험생 1명을 대상으로 개별적 평가
+7. **서류평가**:
+   - 평가영역: 공동체역량, 학업역량, 전공적합성
+   - 평가요소 및 기준은 지원자의 학교생활기록부 내용을 바탕으로 평가됩니다.
+8. **동점자 처리기준**:
+   - 순위 1: 면접고사 성적 상위자
+   - 순위 2: 서류평가 공동체역량 영역 성적 상위자
+   - 순위 3: 서류평가 전공적합성 영역 성적 상위자
+이러한 정보를 바탕으로 평생학습자전형에 지원하려는 학생들은 자신의 경력을 잘 준비하고, 제출서류와 면접에서 자신을 효과적으로 표현할 수 있도록 노력해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.4603015075376884</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.2195367573011078</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.3035175879396985</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+     ※ 단, 4대 보험 가입 대상 사업체가 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서 확인을 통해 인정할 수 있음
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.07725321888412018</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.1191489361702128</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)에 실기고사가 있습니다. 이 날짜에는 레저스포츠학과와 태권도학과의 실기고사가 진행됩니다.
+대기실 및 입실 시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.4415584415584415</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.3896103896103896</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **일정**: 2024년 1월 17일(수)입니다.
+2. **장소**: 입학 안내 홈페이지에서 대기실 및 입실 시간을 확인할 수 있습니다 (2024년 1월 12일(금) 14:00 이후에 확인 가능).
+따라서, 체육학과의 실기고사는 2024년 1월 17일(수)에 진행되며, 해당 날짜 전날인 1월 12일(금) 오후 2시 이후에 대기실 및 입실 시간을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.2741935483870968</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.1639344262295082</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.1774193548387097</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년 입학의 경우, 충원 합격자 발표 후에는 개별 전화 통보 방식으로 알림이 주어지는 것으로 보입니다. 
+특히, "전형일정" 섹션에서 다음과 같은 내용이 있습니다:
+- **충원 합격자 3차 이후 (개별 전화 통보) 발표**: 일정은 2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지이며, 비고는 "* 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)"입니다.
+- **충원 합격자 3차 이후 (개별 전화 통보) 등록**: 일정은 개별 전화 통보 시 안내이며, 비고는 "* 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)"입니다.
+따라서 충원 합격자 발표 후에는 합격 사실을 홈페이지를 통해 확인하고, 필요시 고지서를 출력하거나 입학관리팀에서 수령한 뒤 등록 절차를 진행해야 합니다. 또한 개별 전화 통보 방식으로 알림이 주어진다고 하므로, 핸드폰 번호가 정확하게 입력되어 있는지 확인하고, 해당 기간 동안 전화를 받을 수 있도록 해야 합니다.
+만약 이 정보가 올바르지 않거나 변경되었는지 확인하려면 입학처 웹사이트나 연락처를 통해 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.2798833819241982</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.1114369501466276</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.1865889212827989</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 모집 상황을 통해 2023학년도의 대략적인 추세를 예측할 수 있습니다.
+2024학년도 경찰행정학과의 모집 정보는 다음과 같습니다:
+- **모집 인원**: 7명
+- **지원 인원**: 29명
+- **경쟁률**: 4.14
+이 정보를 바탕으로, 2023학년도 경찰행정학과의 수시모집 결과가 매우 유사했을 가능성이 높습니다. 지원자수가 많고 모집 인원이 적기 때문에 높은 경쟁률을 보였던 것으로 추정됩니다.
+확실한 정보를 얻으려면, 해당 대학교의 입학처 웹사이트나 공식 안내서를 참조하거나 직접 문의하는 것이 가장 정확할 것입니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.2524271844660194</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.1274509803921569</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.1941747572815534</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제에서는 일부 전형에서 수능 응시 여부와 관계없이 지원이 가능합니다. 예를 들어, 평생학습자전형이나 성인학습자전형 등은 수능을 응시하지 않아도 지원할 수 있습니다.
+특히 다음과 같은 전형들은 수능 응시 여부에 상관없이 지원이 가능합니다:
+1. **학생부종합(평생학습자전형)**
+2. **학생부종합(성인학습자(정원내·외)전형)**
+3. **학생부종합(재직자전형)**
+이러한 전형들은 주로 서류 및 면접 평가를 중심으로 진행되므로, 수능 점수보다는 학생부 내용과 지원자의 경험 등이 중요하게 평가됩니다.
+만약 구체적인 모집단위나 전형에 대한 자세한 정보가 필요하다면, 해당 모집단위의 공고문을 확인하거나 입학처 웹사이트를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.1222222222222222</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.03370786516853932</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로 답변 드리겠습니다. 일반적으로 대학의 정시모집은 고등학교 졸업 후 3년 이내의 학생을 대상으로 합니다. 따라서, 고등학교를 졸업한지 10년이 지났다면, 해당 대학의 정시모집에 지원하는 것은 어렵습니다.
+하지만 일부 특별한 경우나 특정 전형에서는 예외가 있을 수 있습니다:
+1. **정시모집군 변경**: 일부 학과 또는 전공에서 정시모집군이 변경되었을 수도 있습니다. 이 경우에는 해당 정보를 확인해 보세요.
+2. **특수전형**: 일부 특별전형(예: 평생학습자전형, 성인학습자전형 등)에서는 고등학교 졸업 후 3년 이상 경과한 사람도 지원할 수 있는 경우가 있습니다.
+따라서, 정확한 답변을 드리기 위해서는 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나, 직접 입학처에 문의하는 것이 가장 좋습니다. 해당 사이트에서 최신 정보와 전형 안내를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.08979591836734693</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.1376518218623482</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com 참조
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조), 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **실기고사**:
+   - 레저스포츠학과, 태권도학과 (가군 실기고사):
+     - 날짜: 2024년 1월 16일 (화)
+     - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **디자인조형학과, 체육학과 (나군 실기고사)**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+     - 비고: *발표 : 홈페이지에서 개별 조회* *고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령* *등록장소 : 학교 지정은행(등록금 고지서에 기재)*
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화) (은행마감시간 내)
+     - 비고: 동일
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일 (수) 09:00
+       - 비고: 동일
+     - 1차 등록: 2024년 2월 14일 (수) 09:00 ~ 16:00
+       - 비고: 동일
+     - 2차 발표: 2024년 2월 15일 (목) 09:00
+       - 비고: 동일
+     - 2차 등록: 2024년 2월 15일 (목) 09:00 ~ 16:00
+       - 비고: 동일
+     - 3차 이후 발표 및 등록: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+       - 비고: 동일
+이 일정은 일반적인 정시모집 일정을 요약한 것입니다. 자세한 내용이나 변경사항이 있을 경우, 입학안내 홈페이지를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.6396396396396397</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.4887218045112783</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.5645645645645645</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집의 주요 일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) 마감일 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) 마감일 17시까지 도착
+   - 참고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 참고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 참고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 참고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 참고: 동일
+   - 충원 합격자 1차 발표 및 등록: 
+     - 날짜: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 참고: 동일
+   - 충원 합격자 2차 발표 및 등록:
+     - 날짜: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 참고: 동일
+   - 충원 합격자 3차 이후 발표 및 등록:
+     - 날짜: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 참고: 동일
+이 일정은 일반적인 예시이며, 실제 모집일정은 변경될 수 있으므로 공식 입학 홈페이지를 통해 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.5931863727454911</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.3835341365461847</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.5030060120240482</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. &lt;나&gt;군 실기/실적(경기실적우수자전형)
+   - 이 전형에서는 수능 점수가 필요하지 않습니다.
+2. &lt;나&gt;군 학생부종합(평생학습자전형), 
+   &lt;나&gt;군 학생부종합(성인학습자(정원내)전형),
+   &lt;나&gt;군 학생부종합(성인학습자(정원외)전형),
+   &lt;나&gt;군 학생부종합(재직자전형),
+   &lt;나&gt;군 학생부종합(조기취업형계약학과전형)
+   - 이들 전형은 수능 점수가 필요하지 않거나, 선택적으로 사용됩니다.
+따라서 수능을 치르지 않은 지원자는 위의 여러 전형에서 지원이 가능합니다. 그러나 각 전형별로 다른 평가 요소와 기준이 있으므로 자세한 내용은 동의대학교 입학처 웹사이트를 확인하시거나 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.2327586206896552</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.08695652173913042</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.1637931034482759</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격자는 36명이었습니다. 
+이는 다음과 같은 정보에서 추출할 수 있습니다:
+- 단과대학: 공과대학
+- 모집단위: 전기공학과, 전자공학과 
+- 모집 인원: 69명
+- 지원 인원: 105명
+- 경쟁률: 1.52
+- 충원 합격 (후보순위): 36명
+따라서 전년도(2023년도)의 경우, 이와 유사한 수치를 기대할 수 있지만 정확한 데이터는 제공되지 않았습니다. 만약 더 구체적인 정보가 필요하다면 공식 입학처 웹사이트인 https://ipsi.deu.ac.kr/main.do를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.2560975609756098</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.1463414634146341</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다.官方网站提供的电话号码信息未包含在给定文本中。建议您直接访问东国大学官网（https://ipsi.deu.ac.kr/main.do）查询入学处的联系电话，或者通过官网提供的其他联系方式进行咨询。
+如果您需要进一步的帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화통보에서 전화 통화가 되지 않는 경우, 해당 학생은 다음과 같은 절차를 따르게 됩니다:
+1. **개별 전화 통보 시 안내**: 최종적으로 합격 여부는 개별 전화 통보를 통해 확인됩니다.
+2. **통화 실패 시의 대처 방법**:
+   - 학생은 합격자 발표 이후 입학관리팀으로부터 추가적인 연락을 받게 됩니다.
+   - 만약 전화 통화가 되지 않는 경우에는, 학생은 입학관리팀에 직접 문의하여 상황을 확인해야 합니다.
+3. **입학관리팀 연락처**: 학생들은 입학관리팀의 공식 연락처를 통해 추가적인 정보를 얻거나, 필요하다면 재연락을 요청할 수 있습니다.
+4. **온라인 확인**: 합격자 발표 이후에는 홈페이지에서 개별 조회가 가능하므로, 학생은 먼저 홈페이지를 통해 자신의 상태를 확인해 보는 것이 좋습니다.
+5. **문서 확인**: 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있으므로, 이 절차도 따르게 됩니다.
+이러한 절차를 통해 합격 여부와 관련된 모든 정보를 얻을 수 있습니다. 만약 문제가 지속된다면, 입학관리팀에 직접 문의하여 상세한 안내를 받는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.2024539877300613</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.08641975308641975</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.1411042944785276</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+1. **지원자 본인의 가족관계증명서** (1부)
+2. **지원자 본인, 부모의 주민등록초본** (각 1부, 총 3부)
+3. **중학교 학교생활기록부** (1부)
+4. **고등학교 학교생활기록부** (1부)
+이 중에서:
+- **6년 과정**: 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면)지역에 거주한 자를 대상으로 합니다.
+  - 추가 제출서류: 고교 졸업증명서, 지원자 본인, 부, 모 초본 각 1부 (총 3부)
+- **12년 과정**: 부모의 거주지와 상관없이 지원자 본인이 초·중·고등학교 전 과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자를 대상으로 합니다.
+  - 추가 제출서류: 고교 졸업증명서, 지원자 본인 초본 1부
+이러한 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.5290322580645163</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.2783171521035598</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.3064516129032258</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 하는 서류는 다음과 같습니다:
+- 고교 졸업증명서 (1부)
+- 지원자 본인의 주민등록초본 (1부) 
+- 초등학교 학교생활기록부 (1부)
+- 중학교 학교생활기록부 (1부)
+- 고등학교 학교생활기록부 (1부, 학생부 온라인 제공 비대상 교 및 미동의자)
+이러한 서류는 지원자의 학력과 농어촌 지역 거주 경력을 입증하기 위해 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.5673076923076924</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.3398058252427185</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.4711538461538461</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 해당 대학교에서는 정시모집의 경우 저소득 기회균등 전형을 실시하지 않는 것으로 보입니다. 이 점은 주요 변경사항 부분에서 확인할 수 있으며, 관련 내용이 명시되어 있지 않습니다. 따라서 2024학년도에 따르면, 해당 대학교는 정시모집에서 저소득 기회균등 전형을 선발하지 않는 것으로 보입니다.
+만약 최신 정보가 필요하다면, 해당 대학교의 입학처 웹사이트나 공식 안내서를 확인하시거나 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.2204724409448819</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.1574803149606299</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>一般来说，如果两门社会选择性考试科目中的一个成绩是2.5等，则通常会将其直接取为2.5等，而不是进行向下取整（即“ 절사”）。这是因为大学在录取时通常采用实际获得的等级，而不会对2.5这样的半数等级进行特殊处理。
+不过，具体政策可能会因学校和地区的不同而有所差异。为了确保准确无误，请直接咨询该大学招生办公室或查看其最新的招生简章以获取最确切的信息。</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제의 전형일정에 따르면, 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표**: 
+   - 일정: 2024년 2월 14일(수) 09:00
+   - 내용: (인터넷) 발표
+2. **1차 충원 합격자 등록**:
+   - 일정: 2024년 2월 14일(수) 09:00~16:00
+   - 내용: (인터넷) 등록
+3. **2차 충원 합격자 발표**: 
+   - 일정: 2024년 2월 15일(목) 09:00
+   - 내용: (인터넷) 발표
+4. **2차 충원 합격자 등록**:
+   - 일정: 2024년 2월 15일(목) 09:00~16:00
+   - 내용: (인터넷) 등록
+따라서, 정시 충원 합격자는 총 3차로 발표되며, 각 차례별로 인터넷을 통해 발표 및 등록이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.3501945525291829</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.09411764705882353</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.264591439688716</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑几个因素：
+1. **学校和专业具体要求**：不同大学和专业的录取标准可能有所不同。您需要查看目标学校的2024年招生简章中e비즈니스학과的具体录取分数要求。
+2. **竞争情况**：即使达到了最低分数线，也需要考虑到实际的竞争程度。如果该专业的报名人数较多且成绩普遍较高，则仍有可能无法被录取。
+3. **其他评价因素**：除了考试成绩外，学校还可能考虑学生的综合素质、面试表现等其他因素。
+4. **具体分数要求**：根据您提供的信息，e비즈니스학과的最低录取分数线是313.13分（国语+数学+探究(2科) (加分后) 标准转换总分均值），标准差为5.75。您的成绩4.6可能低于这个平均值。
+综上所述，仅凭您提供的信息来看，如果e비즈니스学专业的最低录取分数线是313.13分，并且考虑到标准差等因素，您的成绩4.6（假设这是指国语+数学+探究(2科) (加分后) 标准转换总分）可能不够。但具体情况还需参考目标学校的实际招生要求和当年的报名情况。
+建议您：
+- 查看目标学校e비즈니스学专业的具体录取分数线。
+- 了解该专业往年录取学生的成绩分布情况。
+- 如果有可能，咨询该校招办获取更准确的信息。
+希望这些信息对您有所帮助！</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.1679790026246719</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.0316622691292876</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.1312335958005249</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률과 지원자 수를 고려하면, 정시 등급 5.3이면 최고 등급인 1등급을 받은 지원자들보다 약간 낮지만 여전히 높은 점수입니다.
+e비즈니스학과의 주요 통계를 살펴보겠습니다:
+- 모집 인원: 10명
+- 지원 인원: 89명
+- 경쟁률: 8.90
+평균 등급이 4.17이고, 표준 편차가 0.14인 것을 볼 수 있습니다. 이는 e비즈니스학과의 지원자들이 비교적 높은 점수를 받았음을 의미합니다.
+정시 등급 5.3은 1등급에 해당하며, 이는 평균 등급보다 약간 낮지만 여전히 상위 등급입니다. 따라서 경쟁률이 8.90인 상황에서 정시 등급 5.3을 받았다면 최초 합격 가능성은 높지 않을 수 있지만, 충원 합격 가능성은 있습니다.
+결론적으로:
+- **최초 합격 가능성**: 낮지만 불가능한 것은 아닙니다.
+- **충원 합격 가능성**: 상당히 높습니다.
+따라서 정시 등급 5.3을 받았다면 e비즈니스학과에 충원 합격할 가능성이 매우 높다고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.3586206896551724</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.1597222222222222</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.2275862068965517</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **你的成绩**：你提供的信息中，eBiz专业（电子商务学）的最终注册者的平均综合标准转换分数为426.25。这表明你需要达到或接近这个水平。
+2. **竞争情况**：eBiz专业的竞争率为8.90，意味着每8名申请者中有1人被录取。因此，竞争相当激烈。
+3. **你的具体成绩**：你提到的综合标准转换分数为426.25，这与最终注册者的平均值非常接近。如果这个分数是基于最新的考试结果，并且没有明显的异常情况（如作弊等），那么你的成绩看起来是非常有竞争力的。
+4. **其他因素**：
+   - **面试表现**：虽然你没有提供具体的面试信息，但良好的面试表现可以弥补一些分数上的差距。
+   - **个人陈述和推荐信**：这些材料的质量也很重要。如果能够展示出对专业的热情以及未来的职业规划，可能会增加录取机会。
+5. **学校政策**：不同大学的录取标准可能有所不同。有些学校可能会考虑其他因素（如面试表现、个人陈述等）来决定最终录取名单。
+综上所述，如果你的成绩确实为426.25，并且没有明显的异常情况，那么你的成绩是接近或略高于eBiz专业的平均录取水平的。在这种情况下，你有很大的机会被预录取。不过，为了确保万无一失，建议你：
+- 确认是否有面试环节并做好准备。
+- 提交高质量的个人陈述和推荐信。
+- 关注学校发布的任何补充信息或通知。
+希望这些信息对你有所帮助！祝你好运！</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.04316546762589928</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.04316546762589928</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 최종 등록자들의 수능 성적 분석을 보면, 지원 인원이 많고 경쟁률이 높은 편입니다. 예를 들어:
+- **간호학과** (교직 - 간호교육인증): 모집 인원 110명에 지원 인원 145명으로 경쟁률이 6.59:1이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48입니다.
+- **임상병리학과**: 모집 인원 5명에 지원 인원 24명으로 경쟁률이 4.80:1이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 329.82입니다.
+- **치위생학과**: 모집 인원 4명에 지원 인원 22명으로 경쟁률이 5.50:1이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 318.80입니다.
+이러한 데이터를 바탕으로 볼 때, 정시 성적 3.44는 간호학과에 충분히 경쟁력을 갖추고 있을 수 있습니다. 그러나 최종 합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **수능 점수**: 평균적인 수능 점수가 350점대를 유지하고 있어, 3.44는 상당히 높은 점수입니다.
+2. **경쟁률**: 간호학과의 경쟁률이 매우 높기 때문에, 지원 인원 중 일부는 합격하지 않을 수 있습니다.
+3. **추가 가산점**: 수능 성적 외에 추가로 가산점을 받을 수 있는 경우도 있으므로 이 점수를 고려해야 합니다.
+따라서 정시 성적이 3.44라면, 간호학과에 합격 가능성은 있지만 확실하지는 않습니다. 최종 결정을 내리기 위해서는 동의대학교의 공식 입학 정보나 추가적인 가산점 여부 등을 확인하는 것이 좋습니다. 또한, 다른 전형(예: 실기/실적, 학생부 종합 등)에서도 지원해 볼 것을 권장합니다.
+추가로, 동의대학교의 공식 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하여 최신 정보와 추가적인 지원 전략을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.2025316455696202</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.07203389830508475</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.1561181434599156</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에 대한 정보를 바탕으로 답변 드리겠습니다.
+1. **최초합격자 통계**:
+   - 평균 국어 + 수학 + 탐구(가산점 포함) 표준 변환 점수 합: 347.50
+   - 평균 영어 등급: 2.68
+   - 평균 수능 4개 영역 등급: 3.19
+   - 평균 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 475.00
+2. **정시 성적 분석**:
+   - 당신의 정시 성적이 2.52로, 이는 평균보다 약간 낮습니다.
+   - 그러나 동의대학교 간호학과는 경쟁률이 높지 않은 편이며, 최초합격자의 평균 점수가 상대적으로 낮은 편입니다.
+3. **가능성**:
+   - 정시 성적이 2.52인 경우에도 최종 합격 가능성은 있습니다.
+   - 경쟁률이 낮고, 지원자들의 성적 분포가 평균보다 낮을 수 있으므로, 충분히 가능성을 고려할 만합니다.
+4. **추천**:
+   - 추가적으로 면접 준비를 철저히 하세요. 면접에서는 학업계획, 진로 목표 등이 중요하게 평가됩니다.
+   - 지원서와 서류 준비에도 신경 써야 합니다. 모든 서류가 정확하고 체계적일 경우 유리합니다.
+결론적으로, 2.52의 성적이 최초합격자 평균보다 낮지만, 동의대학교 간호학과는 경쟁률이 낮고 지원자의 성적 분포가 다양하기 때문에 최종 합격 가능성은 있습니다. 철저한 준비와 노력으로 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.06470588235294117</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수지만, 간호학과에 지원할 때 고려해야 할 요소들이 많습니다:
+1. 경쟁률: 간호학과는 매우 인기 있는 전공으로 높은 경쟁률을 가지고 있습니다.
+2. 학교별 요구사항: 각 대학의 간호학과마다 다른 입학요건이 있으므로, 해당 대학의 정시 모집요강을 꼼꼼히 확인해야 합니다.
+3. 지원 자격: 특정 전형에서는 특별한 지원 자격 조건이 있을 수 있습니다(예: 의료봉사 경력 등).
+4. 추가 서류 및 면접: 일부 학교는 서류심사와 면접을 통과해야 하는 경우가 많습니다.
+5. 추천서나 자기소개서: 일부 전형에서는 이들을 요구할 수 있습니다.
+6. 특별전형: 일부 대학은 특별전형(예: 농어촌학생, 재직자 등)을 통해 합격자를 선발합니다.
+7. 추가 평가 요인: 면접 성적, 추천서 내용 등이 중요한 역할을 할 수 있습니다.
+3.7의 GPA는 좋은 기초를 제공하지만, 경쟁률과 전형 특성 등을 고려하여 결정해야 합니다. 꼭 해당 대학의 정시 모집요강을 확인하고, 필요하다면 입학처에 문의해 보세요. 준비 과정에서 추가 자격 요건이나 요구 사항을 충족시키는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.1592356687898089</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.01282051282051282</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.089171974522293</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 국어+수학+탐구(2개) (가산점 포함) 표준변환점수 합 평균은 396.29이고, 표준편차는 0.68입니다.
+당신의 성적인 2.58은 이 값들에 비해 상대적으로 낮습니다. 그러나 정시 모집에서 합격 가능성은 여러 요소에 따라 달라질 수 있습니다:
+1. 경쟁률: 현재 공개된 정보로는 경쟁률이 7.00으로 알려져 있으므로, 높은 경쟁률을 고려해야 합니다.
+2. 지원자들의 성적 분포: 전체 지원자의 성적이 어떻게 분포되어 있는지 중요합니다. 일부 학생들이 매우 높은 점수를 받았다면 낮은 점수로도 합격할 수 있습니다.
+3. 서류 및 면접 평가: 간호학과는 종종 서류평가와 면접을 통해 지원자의 전반적인 적합성을 판단하기 때문에, 좋은 서류 준비와 면접 성적이 중요합니다.
+4. 특별한 경력이나 활동: 특정 활동이나 경험을 통해 학교가 선호하는 요소를 보여주면 이점이 될 수 있습니다.
+5. 모집인원과 지원자 수: 현재 정보로는 모집 인원 3명, 지원 인원 21명으로 경쟁률이 높지만, 실제 최종 등록자 중에서 합격자가 몇 명인지 확인해야 합니다.
+결론적으로, 당신의 성적만으로는 확실한 합격을 보장할 수 없습니다. 그러나 적절한 준비와 지원자의 전체적인 평가를 고려하면 가능성이 있을 수 있습니다. 서류 준비와 면접 연습에 충분히 시간을 투자하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.2078651685393259</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.05084745762711864</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.1123595505617978</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏工学系（假设对应于Game Science Department）录取，我们需要考虑以下几个因素：
+1. **招生计划**：查看该系的招生名额和分配情况。例如，如果该系总共招收20人，并且已经确定了其他学生的录取情况。
+2. **成绩与排名**：了解您的成绩在所有申请者中的排名。通常学校会根据综合评分（包括考试成绩、面试表现等）来决定录取顺序。
+3. **面试表现**：您在面试中的表现也很重要，特别是对于游戏工学这样的专业，面试官可能会更关注学生的创新能力和对专业的热情。
+4. **其他因素**：有时学校还会考虑学生的特长、社会实践经历等因素。
+建议您可以：
+- 仔细查看学校的招生简章和具体要求。
+- 准备充分的面试材料和表现。
+- 关注录取结果发布的时间，并及时了解相关信息。
+如果您能提供更多关于您申请的具体信息，我可以帮助您更详细地分析您的情况。</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.07476635514018692</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.05607476635514019</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 게임공학과의 정시 모집요강을 고려해보겠습니다.
+1. **모집단위와 전형**: 게임공학과는 일반학생전형으로 모집되며, 이는 수능 성적에 따라 합격 가능성을 판단할 수 있습니다.
+2. **수능성적 반영방법**:
+   - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균은 416.00이며, 표준 편차는 9.35입니다.
+3. **경쟁률 및 지원자 분포**:
+   - 수능(일반학생전형) 최종등록자에서 게임공학과 모집단위의 지원 인원은 28명이며, 경쟁률은 1.79입니다.
+4. **합격 가능성을 판단하기 위한 통계적 접근법**:
+   - 평균 점수가 416.00이고 표준 편차가 9.35인 경우, 대부분의 지원자는 이 수치를 중심으로 분포하고 있습니다.
+   - 경쟁률이 1.79라는 것은 대략적으로 28명 중 1위부터 28위까지 합격자가 배분되는 상황을 의미합니다.
+5. **추정적인 합격 가능 범위**:
+   - 평균 점수와 표준 편차를 고려하면, 406-426 사이의 점수가 대체적으로 안전한 범위일 수 있습니다.
+   - 따라서, 지원자의 성적이 4.16정도라면, 이는 평균보다 약간 낮은 위치에 해당합니다.
+**결론**: 
+- 4.16정도의 성적을 가진 지원자는 대략적으로 20위권 내에서 합격할 가능성이 높습니다.
+- 그러나 정확한 합격 확률은 입학사정관들의 평가와 서류평가, 면접 등 다양한 요인에 따라 달라질 수 있으므로, 최선을 다해 준비하는 것이 중요합니다.
+따라서 추가적으로 몇 번의 합격 가능성을 추정하자면, 20위권 내에서 1-5번 정도를 받을 수 있을 것으로 예상됩니다. 그러나 이는 단순히 수능 성적만으로 판단한 것일 뿐, 전반적인 지원자의 경쟁력을 고려해야 정확한 결과를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.2172949002217295</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.0623608017817372</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.1463414634146342</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 경우, 학생부교과 평균 등급 기준을 살펴보면 다음과 같습니다:
+- 정시모집군 (가) : 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목 중 최소 8과목의 등급 평균이 B+ 이상(석차등급 기준) 또는 3.75 이상(성적점수 기준)이어야 합니다.
+당신의 성적인 3.75는 성적점수 기준으로 충족되므로, 이 조건을 만족하고 있습니다.
+그러나 최종 등록 가능 여부는 다음과 같은 요소들로 결정됩니다:
+1. 학생부교과 성적: 이미 확인했습니다 (성적점수 3.75 이상).
+2. 지원 자격: 농어촌 지역 거주 경력이 있는 중·고등학교 졸업자 또는 법령에 의한 동등 학력 소지자여야 합니다.
+3. 제출서류: 주민등록초본, 고교 졸업증명서, 가족관계증명서 등이 필요합니다.
+4. 면접 및 서류평가 결과: 최종 등록을 위한 추가 평가 과정이 있습니다.
+따라서, 현재의 성적만으로는 확실한 결정을 내릴 수 없습니다. 지원 자격과 제출서류 등을 모두 충족하는지 확인하고, 입학사정관 면접 및 서류평가 결과를 기다려야 합니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.2115384615384615</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.03870967741935484</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要了解一些具体信息：
+1. 经营信息学部（经营信息学科）的录取标准是什么？
+2. 最初注册者的定义是什么？
+通常情况下，“最初注册者”指的是在特定招生批次中最早提交申请并被确认为有效申请的学生。而“4.2”的成绩可能是指某种标准化考试或综合评价得分。
+假设：
+- 经营信息学部使用高考成绩作为主要录取依据。
+- “4.2”是考生的综合评价分数，通常用于衡量学生的综合素质。
+如果经营信息学部接受综合评价分数，并且该分数达到一定标准，则有可能被最初注册者考虑。但是具体能否成为最初注册者还需要看学校的具体规定和招生政策。
+建议：
+1. 查阅东国大学官网或招生简章中关于经营信息学部的详细录取要求。
+2. 联系学校的招生办公室获取最准确的信息。
+3. 了解“4.2”这个分数在综合评价体系中的具体含义及其是否满足学校的要求。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.08771929824561404</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.08771929824561404</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 수능 위주 전형으로 운영되며, 전형요소 반영비율은 수능 성적 100%로 100% 반영됩니다. 
+2024학년도 동의대학교 경영정보학과의 수능 위주 전형에 대한 최종 합격선을 확인해보겠습니다:
+- 2023학년도: 수능 성적 평균 5.17
+- 2024학년도: 수능 성적 평균 5.33
+2024학년도 동의대학교 경영정보학과의 최종 합격선이 5.33으로 확인되었습니다.
+따라서, 정시 성적이 5.33인 경우, 동의대학교 경영정보학과 일반학생전형으로는 합격할 가능성이 높습니다.
+추가적으로, 수능 성적 외에 면접 등 다른 평가 요소가 반영되므로, 정확한 합격선을 확인하기 위해서는 해당년도의 최종 합격선을 확인해야 합니다. 
+따라서, 정시 성적이 5.33인 경우, 동의대학교 경영정보학과 일반학생전형으로는 합격할 가능성이 높습니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.0782608695652174</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.1896551724137931</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024년 동국대학교 바이오응용공학과의 정시 최초합격자의 성적을 보면, 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 약 311.00이며, 영어 등급의 평균은 3.33입니다.
+이러한 정보를 바탕으로 다음과 같은 결론을 내릴 수 있습니다:
+- 정시 최초합격자의 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합과 당신의 목표 점수가 비슷합니다.
+- 영어 등급도 동일한 점수입니다.
+따라서, 성적만으로는 가능성이 있지만 경쟁률이나 지원자들의 종합적인 성적 및 기타 평가 요소들을 고려해야 합니다. 
+추천 사항:
+1. 다른 전형(예: 특기자전형 등)을 함께 준비해보세요.
+2. 추가적으로 수능 공부를 해서 점수를 높이는 것이 좋습니다.
+3. 바이오응용공학과의 입시요건이나 학과 특성 등을 더 자세히 확인하세요.
+결론적으로, 성적이 비슷하므로 가능성이 있지만 확실한 것은 아닙니다. 추가적인 준비와 정보 수집을 통해 최선을 다해보세요.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.06711409395973154</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.1733333333333333</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>4.4등급으로 방사선학과에 지원하는 것은 가능하지만 경쟁률을 고려하면 어려울 가능성이 높습니다.
+방사선학과의 정시 모집요강을 살펴보면:
+1. 성적 기준:
+   - 대부분의 대학은 4등급 이상 요구
+   - 일부 대학에서는 3.5등급 이상 요구
+2. 경쟁률:
+   - 방사선학과는 인기 학과로, 경쟁률이 높습니다.
+   - 예년 평균 경쟁률은 10:1 이상
+3. 지원 전략:
+   - 수능 성적 외에 서류평가와 면접 준비가 중요합니다.
+   - 특기사항이나 활동 경력 등을 잘 활용해야 합니다.
+4. 대안:
+   - 다른 인기 학과보다는 낮은 경쟁률을 가진 학과로 지원해볼 수 있습니다.
+   - 전공적합성 있는 학과를 찾아보세요.
+결론적으로 4.4등급으로 방사선학과에 정시로 지원하는 것은 가능하지만, 높은 경쟁률을 고려하면 다른 대안도 함께 검토해 보는 것이 좋습니다. 추가적인 정보나 자세한 조언이 필요하시다면 입학처나 학교 상담원에게 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.2172284644194757</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.03018867924528302</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.1123595505617977</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년 경희대학교 방사선학과의 정시 최종합격자들의 평균 수능 점수를 보면, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 약 390.58이고, 이는 2.66보다 높습니다.
+따라서, 정시로 2.66을 받으셨다면 경쟁률이 높은 방사선학과에 합격하기 위해서는 다음과 같은 요인들을 고려해야 합니다:
+1. **면접 성적**: 면접 점수가 중요합니다. 평균적으로 면접 점수도 높습니다.
+2. **서류평가**: 서류평가에서도 좋은 결과를 받아야 합니다. 공동체역량, 학업역량, 전공적합성 등에서 높은 점수를 받는 것이 중요합니다.
+3. **전형별 특징**:
+   - **나군 수능(일반학생전형)**: 이전 년도의 데이터를 보면, 경쟁률이 높고 충원 합격자들이 많습니다.
+   - **나군 학생부종합(조기취업형계약학과전형)**: 이 전형은 면접과 서류평가가 중요합니다.
+4. **개인적 특성**: 지원동기, 학업계획, 전공적합성 등 개인적인 요소도 중요한 역할을 합니다.
+5. **추천서 및 추천사진**: 일부 전형에서는 추천서나 추천사진이 필요할 수 있으므로 준비해야 합니다.
+6. **면접 질문 대비**: 면접 질문 공통문항을 잘 준비하고, 지원동기와 학업계획을 명확하게 설명할 수 있어야 합니다.
+결론적으로 2.66이라는 점수만으로는 위험이 있습니다. 그러나 적절한 서류평가와 면접 성적을 얻으면 가능성을 높일 수 있습니다. 꾸준히 준비하고, 전형별 특징을 잘 파악하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.06169665809768637</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.1432225063938619</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 좋은 점수입니다만, 경찰행정학전공 농어촌 전형에 합격하기 위해서는 여러 요소를 고려해야 합니다.
+1. **학교생활기록부 평가**: 농어촌 학생 전형에서는 학교생활기록부의 중요성이 크므로, 학업태도와 성취도, 활동성과 참여도 등을 잘 보여줘야 합니다. 특히 농어촌 특성을 반영한 활동이나 경험을 강조하는 것이 좋습니다.
+2. **면접 평가**: 경찰행정학전공은 실무적이고 사회적인 전공이므로, 면접에서의 소통 능력과 문제 해결 능력을 잘 보여줘야 합니다. 지원 동기와 학업 계획을 명확하게 설명하고, 관련 활동이나 경험을 구체적으로 나열하는 것이 중요합니다.
+3. **추천서**: 추천서는 교사나 지도자의 평가를 반영하므로, 긍정적인 의견이 담긴 추천서를 준비하는 것이 도움이 될 수 있습니다.
+4. **지역 특성**: 농어촌 학생 전형은 지역 특성을 고려하기 때문에, 지원자가 해당 지역에서의 경험과 이해도를 잘 보여줘야 합니다.
+5. **전형 요소 비율**: 경찰행정학전공 농어촌 학생 전형에서는 학교생활기록부가 주요 평가 기준이므로, 이 부분을 강화하는 것이 중요합니다. 특히 학업성취도와 활동성 등을 잘 보여줘야 합니다.
+3.66의 GPA는 좋은 성적입니다만, 합격 여부는 전형 요소 비율과 지원자의 전체적인 경쟁력을 결정하기 때문에, 다른 지원자들과 비교하여 어떻게 평가될지 예측하기는 어렵습니다. 하지만 준비를 철저히 하면 좋은 결과를 얻을 수 있습니다.
+추천드리고 싶은 것은:
+- 학교생활기록부와 면접 준비에 충분한 시간을 할애하세요.
+- 관련 활동이나 경험을 구체적으로 작성하고, 이를 지원 동기에 잘 녹여내세요.
+- 추천서를 얻는 데도 신경 써야 합니다.
+더 자세한 정보나 도움이 필요하시면 학교 입학처 또는 해당 전공의 담당 교수님에게 문의하시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.2329317269076305</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.04032258064516129</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.1325301204819277</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위에 선정되었다는 것은 좋은 결과입니다. 하지만 정시 경쟁률과 합격자 발표 결과를 고려할 때, 아직 확실한 것은 아닙니다.
+주요 이유:
+1. 경쟁률이 높습니다: 많은 지원자가 동일한 모집인원을 겨루고 있기 때문에 낮은 순위에 선정되어도 최종 합격 가능성은 있습니다.
+2. 실기/면접 등 추가 평가: 일부 전형에서는 실기고사나 면접 등을 통해 추가로 평가를 받게 됩니다. 이때 성적 외의 요소들이 중요하게 작용할 수 있습니다.
+3. 학생부 종합평가: 일부 전형에서는 학생부 종합평가를 통해 지원자를 재평가하기도 합니다.
+4. 충원 합격자 발표: 최초 합격자가 모두 등록을 마치지 않으면, 충원 합격자가 추가로 발표될 수 있습니다.
+5. 개인적 요인: 성적 외의 특기사항이나 지원 동기가 평가에 긍정적으로 작용할 수도 있습니다.
+따라서 아직 최종 결과는 불확실합니다. 등록금 납부 기간 내에 합격자 발표를 확인하고, 필요시 추가적인 준비나 수정을 할 수 있도록 대비하는 것이 좋습니다. 또한 등록금 납부 후에도 충원 합격자가 발표될 가능성을 고려하여 대응해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1770833333333333</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.03141361256544502</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시모집 경쟁률과 합격 기준을 정확히 파악하기 위해서는 최신 입학정보를 확인해야 합니다. 하지만, 일반적으로 법경찰행정학부의 특성과 전반적인 경쟁 상황을 고려해보면 다음과 같은 추정치가 있습니다:
+1. 안정권: 
+- 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 300~320 사이
+- 영어 등급이 4.0 이상
+2. 문 닫고 들어갈 수 있는 수준:
+- 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 320~350 사이
+- 영어 등급이 4.5 이상
+이는 과거 입학 경향과 일반적인 경쟁률을 기반으로 추정한 수치이며, 정확한 것은 최신 입시 정보를 참고해야 합니다.
+추가적으로 고려할 점:
+1. 경쟁률: 법경찰행정학부는 인기 학과로 알려져 있어 경쟁률이 높을 가능성이 큽니다.
+2. 전형별 특성: 정시 모집에서는 일반전형, 특기자전형 등 다양한 방식으로 선발되므로, 해당 전형의 특성을 잘 이해하고 준비해야 합니다.
+3. 추가 지원 자격: 경찰관 임용시험 합격 예정자 등의 특별한 자격이 필요할 수 있으니 확인해보세요.
+최종적으로는 동의대학교 입학처 웹사이트나 정시모집 안내서를 통해 가장 최신 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.368141592920354</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.1420959147424511</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.2265486725663717</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 정시 모집에서는 다음과 같은 절차와 기준을 따릅니다:
+1. **모집군**: 나군 (학생부교과)
+2. **전형명**: 학생부교과(농어촌학생전형)
+보육가정상담학과는 일반적으로 인문사회계열에 속하며, 이 경우 수능 성적 반영 비율은 다음과 같습니다:
+- 국어: 25%
+- 수학: 25%
+- 영어: 25%
+- 탐구(사회/과학): 25%
+등급별 점수 변환표를 참조하면, 등급 5.33의 경우 대략 다음과 같은 표준점수가 됩니다:
+- 국어: 약 100점
+- 수학: 약 98점
+- 영어: 약 107점 (등급 6)
+- 탐구(사회/과학): 약 50점
+따라서, 합계 점수는 대략:
+100 + 98 + 107 + 50 = 355점 정도 됩니다.
+보육가정상담학과의 경쟁률과 모집인원을 고려하면, 이 점수가 어느 정도 수준인지 판단해야 합니다. 보통 합격선은 평균 점수보다 약간 높아야 하며, 최소 350점 이상이 필요할 것으로 예상됩니다.
+따라서, 등급 5.33의 경우 대략적인 점수가 355점으로 보이며, 이는 합격 가능성이 있지만 확실하지 않습니다. 경쟁률과 모집인원을 고려하면 조금 더 높은 점수를 기대하는 것이 좋습니다.
+결론적으로, 등급 5.33의 경우 합격 가능성은 있으나, 확실한 것은 아니며, 최선을 다해 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.2262210796915167</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.04134366925064599</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.1336760925449871</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>3차 충원 합격을 받은 경우, 일반적으로 합격 확률이 높아집니다. 하지만 최종적인 합격 여부는 여러 요인에 따라 결정되므로 다음과 같은 점들을 고려해볼 수 있습니다:
+1. 경쟁률: 이전 차수에서의 충원 합격자 수와 지원자의 수를 확인해야 합니다.
+2. 평균 점수: 이전 차수에서의 평균 점수와 개인의 점수가 얼마나 비슷한지 비교해볼 필요가 있습니다.
+3. 동점 처리 기준: 동점자가 있을 경우, 어떤 기준으로 처리되는지도 중요합니다.
+4. 학교 정책: 각 대학은 충원 시 다른 요인들을 고려할 수 있으므로 이에 대한 정보도 참고해야 합니다.
+5. 서류 및 면접 평가 결과: 이전 차수에서의 서류평가와 면접 평가 점수를 확인해볼 필요가 있습니다.
+현재 정보만으로는 확실한 답변을 드리기 어렵습니다. 하지만 3차 충원 합격자로 선발될 가능성이 높다고 볼 수 있습니다. 최종 결과를 기다리는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.337874659400545</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.09315068493150686</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.1580381471389646</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75의 영어 등급은 상당히 높은 점수입니다. 수능(일반학생전형) 최종등록자에서 단과대학 인문사회과학대학, 모집단위 유아교육과의 지원자의 평균 영어 등급이 3.58이며 표준 편차가 0.50으로 비교적 낮은 수준입니다. 따라서 4.75는 이보다 높은 점수로, 경쟁력을 갖추고 있습니다.
+유아교육과의 경우, 지원자의 경쟁률이 3.25이며 모집인원은 4명이고 지원 인원은 13명으로 보니 상대적으로 낮은 경쟁률을 가지고 있습니다. 하지만 이는 단순히 수능 성적만으로 판단하는 것이 아니라 전반적인 학생부와 면접 등 다양한 평가 요소를 고려해야 합니다.
+따라서, 4.75의 영어 등급과 함께 좋은 학생부 및 적절한 준비를 하면 유아교육학과에 충분히 지원 가능할 것으로 보입니다. 하지만 최종 결정은 입학사정관들의 평가 결과에 따라 달라질 수 있으므로, 정확한 정보는 해당 대학의 입학처와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1901639344262295</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.1016393442622951</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>4.16이라는 등급은 상당히 좋은 수준입니다. 하지만, 동의대학교 보육가정상담학과의 정시 경쟁률과 모집인원 등을 고려해야 합니다.
+1. **경쟁률**: 보육가정상담학과의 경쟁률을 확인해야 합니다. 경쟁률이 높다면 4.16 등급으로 충분히 합격할 수 있지만, 경쟁률이 낮다면 더 높은 점수를 요구할 수도 있습니다.
+2. **모집인원**: 모집인원도 중요합니다. 모집인원이 많으면 경쟁률이 높아지므로 4.16 등급으로 합격 가능성은 낮아질 수 있습니다.
+3. **전형별 특성**: 일반학생전형의 경우, 수능 성적 외에도 서류평가와 면접 등의 요소가 포함되므로, 전반적인 평점을 고려해야 합니다.
+4. **추합 점수**: 추합 점수를 계산해보세요. 예를 들어, 국어 + 수학 + 탐구(2개)의 표준 변환점수 합이 어느 정도인지 확인하고, 이에 영어 등급을 추가하여 총점을 계산하면 더 정확한 판단이 가능합니다.
+5. **최종등록자 분석**: 동의대학교의 최종등록자들의 성적 분포를 참고해보세요. 4.16 등급으로는 충분히 경쟁력을 갖추고 있을 수 있지만, 실제 합격선은 이보다 높을 수도 있습니다.
+6. **예상 합격선**: 동의대학교의 과거 합격선이나 최근 몇 년간의 최저등급 등을 참고해보세요. 이 정보는 대학 홈페이지나 입시 커뮤니티에서 확인할 수 있습니다.
+결론적으로, 4.16 등급으로는 충분히 합격 가능성은 있지만, 정확한 판단을 위해서는 위의 요소들을 종합적으로 고려해야 합니다. 경쟁률과 모집인원 등을 포함하여 전반적인 입시 상황을 파악하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.248780487804878</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.07352941176470587</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.1365853658536585</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도 서울대학교의 정시모집에서 소프트웨어융합학과에 지원 가능한 정보를 바탕으로 답변 드리겠습니다.
+1. **지원 가능 여부**: 소프트웨어융합학과는 일반전형, 특기자전형 등 다양한 전형을 통해 지원이 가능합니다. 정시모집에서도 지원이 가능하지만, 해당 학과의 정시모집 정보가 공개되지 않았습니다. 따라서 정확한 지원 가능 여부를 확인하기 위해서는 서울대학교 입학처 웹사이트나 공식 안내서를 참조해야 합니다.
+2. **평균 등급**: 일반전형으로 소프트웨어융합학과에 합격하는 경우의 평균 수능등급을 추정해보겠습니다.
+   - **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 317.87
+   - **영어 등급의 평균**: 3.77
+   - **수능 4개 영역 등급의 평균**: 4.49
+   - **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 434.70
+이러한 정보를 바탕으로 추정해보면, 소프트웨어융합학과에 정시로 지원하려는 경우 다음과 같은 수능 등급을 목표로 설정하는 것이 좋을 것 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 310~320 사이
+- **영어 등급**: 4.0 이상
+- **수능 4개 영역 등급의 평균**: 4.5 이상
+이러한 수준의 성적을 기반으로 지원하면 경쟁력을 갖추는 것이 가능할 것으로 예상됩니다.
+마지막으로, 정시모집에 대한 최종 정보는 서울대학교 입학처 웹사이트를 통해 확인하시고, 필요하다면 학부모 상담이나 입학처와의 직접적인 문의를 통해 최신 정보를 얻으시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.05538461538461539</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.03095975232198142</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.05538461538461539</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>1. 면접 점수와 세특(서류평가)의 비중:
+   - 나군 학생부종합(조기취업형계약학과전형) - 정원외에서는 전형요소 반영비율이 다음과 같습니다:
+     - 서류: 60%
+     - 면접: 40%
+2. 준비해야 하는 주요 서류:
+   - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자에 한해 제출할 필요 없음)
+   - 지원동기 및 학업계획 발표
+   - 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+3. 세특(서류평가) 준비사항:
+   - 학교생활기록부 각 영역에 기재될 내용을 정확하게 작성해야 합니다.
+   - 공동체역량: 협업능력, 배려 등
+   - 학업역량: 학업태도와 성취정도, 수업시간 참여 등
+   - 전공적합성: 지원전공 관련 활동과 경험, 학업의지 등
+4. 부정적 사례:
+   - 과장된 내용 기재
+   - 동일 내용의 의도적인 반복 기재
+   - 학급/단체 단위의 내용 기재
+   - 학생에 의한 학교생활기록부 작성
+5. 면접 준비사항:
+   - 지원동기 및 학업계획 발표 준비
+   - 학업역량과 전공적합성 관련 공통문항 답변 준비
+   - 제출서류 진위 여부 확인 질문에 대비하기 위한 내용 준비
+따라서, 서류 평가와 면접 점수가 비슷한 비중을 차지하므로 두 가지 모두 중요하게 준비해야 합니다. 특히 세특에서는 학교생활기록부의 정확성과 객관성이 중요하며, 면접에서는 지원자의 진실성을 확인하기 위한 질문이 많으므로 실제 경험과 생각을 잘 전달할 수 있는 답변을 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.1571815718157182</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.04904632152588555</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.1029810298102981</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프리웨어공학부의 최초합격자의 성적 분석을 통해, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균은 313.13이며, 영어 등급 평균은 3.25입니다.
+현재 제시된 성적인 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 4.08이고, 영어 등급이 3.25로 보자면:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 
+   - 최초합격자의 평균은 313.13입니다.
+   - 제시된 성적인 4.08은 매우 높습니다. 이는 동의대학교 소프트웨어공학부의 일반적인 최소 점수보다 훨씬 높아, 대부분의 학생들이 충족하지 못하는 수준입니다.
+2. **영어 등급**:
+   - 최초합격자의 평균은 3.25입니다.
+   - 제시된 성적인 3.25는 평균과 일치합니다.
+따라서, 현재의 성적이 동의대학교 소프트웨어공학부의 최초합격자로 충분히 경쟁력이 있는 것으로 보입니다. 그러나 최종 합격 여부는 여러 요인에 따라 결정되므로, 정확한 결과를 얻기 위해서는 추가적인 정보와 절차가 필요합니다.
+추천 사항:
+1. **추가 지원**: 다른 전형이나 대학을 함께 준비하여 경쟁력을 높일 수 있습니다.
+2. **면접 준비**: 면접에서도 좋은 성적을 보여주어야 하므로, 면접 준비도 철저히 해야 합니다.
+3. **서류 및 추가 제출 서류**: 필요한 모든 서류를 정확하게 준비하고 제출해야 합니다.
+결론적으로, 현재의 성적이 충분히 경쟁력이 있으나, 최종 결정은 입학사정관들의 평가와 절차에 따라 결정되므로, 철저한 준비와 추가 지원을 통해 최선을 다하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.1434977578475336</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.1964285714285715</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위별 지원 경쟁률 및 합격자 평균 등급을 분석해보면, 소프트웨어융합학과의 경우 정시모집군 (다)에서 모집인원 7명에 지원 인원이 56명으로 경쟁률이 8.00이며, 충원 합격자는 25명으로 많은 지원자가 있습니다.
+평균 등급을 보면:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 291.17
+- 영어 등급의 평균은 3.13
+- 수능 4개 영역 등급의 평균은 4.73
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 413.13
+이 중 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균인 413.13을 보면, 이는 대체로 좋은 성적을 보여주고 있습니다.
+그러나 5등급으로 여기려면 다음과 같은 요소들을 고려해야 합니다:
+1. 경쟁률: 매우 높은 경쟁률이므로 5등급만으로 충분히 합격할 확률은 낮습니다.
+2. 모집인원과 지원자 수: 많은 지원자가 있어 선택의 폭이 넓어졌습니다.
+3. 전형 요소: 실기/실적 위주로 평가되는 경우, 5등급만으로는 부족할 수 있습니다.
+따라서 단순히 5등급만으로 소프트웨어융합학과에 합격하기는 어렵다고 볼 수 있습니다. 추가적인 준비와 실기/실적 등 다른 요소들을 고려해야 할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.2677165354330709</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.08443271767810027</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.1417322834645669</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 입학할 가능성을 평가해보겠습니다.
+1. **모집인원 및 지원자 수**: 
+   - 모집 인원은 56명입니다.
+   - 지원 인원은 81명으로, 경쟁률이 약 1.45:1입니다.
+2. **성적 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 271.64입니다.
+   - 영어 등급의 평균은 5.06이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 378.15입니다.
+3. **성적 비교**:
+   - 4.28이라는 성적은 평균보다 약간 낮습니다.
+   - 그러나, 신소재공학과는 경쟁률이 1.45:1로 상대적으로 낮은 편이며, 지원자 수도 많지 않습니다.
+4. **전형 요인**:
+   - 전형요소 반영비율은 수능 70%, 실기 30%입니다.
+   - 따라서, 성적이 조금 낮더라도 다른 요인(예: 면접 성과, 학업역량 등)에서 좋은 평가를 받으면 가능성이 있습니다.
+5. **추천**:
+   - 성적은 중요한 요소이지만, 전반적인 지원자들의 성적 분포와 경쟁률을 고려하면 4.28이라는 성적도 충분히 경쟁력을 갖춘 수준입니다.
+   - 면접 준비를 철저히 하고, 학업역량과 전공 적합성에 대한 준비를 잘 해두면 좋은 결과를 얻을 수 있습니다.
+결론적으로, 4.28이라는 성적은 신소재공학과에 입학할 가능성이 있지만, 경쟁률이 낮아서 더 높은 가능성은 있습니다. 철저한 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.304147465437788</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.07407407407407408</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.1566820276497696</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동아대학교의 수능 일반학생전형에서는 자기소개서가 필수적으로 요구되지 않습니다. 주요 평가 요인은 수능 점수이며, 면접이나 서류평가에서도 학생부와 실기 등이 중심에 위치합니다.
+하지만 자기소개서를 작성하는 것은 다음과 같은 이점이 있습니다:
+1. **전반적인 인상**: 자기소개서는 입학사정관에게 지원자의 전반적인 이미지를 제공할 수 있습니다.
+2. **자발적 노력**: 지원자가 자신의 학업계획이나 진로에 대해 명확히 이해하고 있는지 확인할 수 있습니다.
+3. **문체 향상**: 자기소개서를 작성하면서 글쓰기 능력을 향상시킬 수 있으며, 이는 대학 생활에서도 유용합니다.
+만약 작성하려고 한다면 다음과 같은 내용을 포함해 보세요:
+- 지원 동기와 학업 계획
+- 고교 생활 중 겪은 어려움과 해결 방안
+- 관심 있는 전공이나 분야에 대한 열정
+하지만 필수적으로 요구되지 않으므로, 수능 점수가 충분히 좋은 경우 자기소개서 작성은 선택사항으로 갈 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.09345794392523366</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.07476635514018691</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 수능 영어 등급으로 보아야 합니다. 동의대학교의 경우, 수능 반영 방식에 따라 정시 모집과 추가모집에서 다르게 적용될 수 있습니다.
+1. **정시 모집**:
+   - **인문사회과학대학, 상경대학**: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - **공과대학, ICT융합공과대학**: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수 + 수학(미적분 또는 기하) 응시자인 경우 수학 표준점수 x 0.1 가산점
+2. **추가모집**:
+   - 추가모집에서도 동일한 반영 방식을 따르지만, 경쟁률이 일반 정시보다 낮아진다는 점을 고려해야 합니다.
+4.5 등급의 경우 다음과 같은 점수를 얻게 됩니다:
+- **등급 4**: 영어 등급점수 = 115
+- **등급 5**: 영어 등급점수 = 107
+따라서, 정시에서 받은 국어 + 수학 + 탐구 점수와 이 영어 등급점수를 합산하면 어느 정도의 총점을 얻게 됩니다. 
+**예시:**
+- **정시**: 
+  - 국어 표준점수 + 수학 표준점수 + 107 (영어 등급점수) + 탐구 표준점수
+- **추가모집**: 
+  - 동일한 점수를 받았다면, 추가모집에서도 비슷한 점수가 반영될 것입니다.
+**경쟁률과 모집인원**:
+- 정시와 비교해 추가모집의 경쟁률이 낮아진다는 점을 고려하면, 4.5 등급으로도 충분히 합격 가능성이 있습니다.
+- 각 모집단위별로 모집인원과 지원자 수를 확인하여 더 구체적인 판단을 내릴 수 있습니다.
+**추가 팁:**
+1. **면접 준비**: 추가모집에서도 면접이 진행될 수 있으므로, 면접 준비는 필수입니다.
+2. **추천서 및 자기소개서**: 일부 모집단위에서는 추천서나 자기소개서를 요구할 수 있으니 미리 준비해두세요.
+결론적으로, 4.5 등급으로 추가모집에 지원하여 합격 가능성은 있습니다. 정시와 비슷한 점수를 받았다면 경쟁률이 낮아진 추가모집에서 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.3304647160068847</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.1036269430051814</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.1686746987951807</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 신소재공학과의 정시 모집에서 지원 가능한 최저등급은 다음과 같습니다:
+- 수능(일반학생전형): 국어+수학+탐구 (가산점 포함) 표준변환점수 합 평균 308.58, 표준편차 10.96
+- 수능(평생학습자전형): 국어+수학+탐구 (가산점 포함) 표준변환점수 합 평균 274.29, 표준편차 35.87
+이 데이터는 단일 등급 기준으로는 정확하지 않을 수 있으며, 전체적인 경쟁률과 지원자들의 성적 분포를 고려해야 합니다. 
+정시에서 합격 가능성은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. 모집인원 및 지원자 수
+2. 지원자의 성적 분포와 평균 
+3. 경쟁률
+4. 면접 결과 등
+따라서 정확한 합격 가능 등급을 예측하기 위해서는 최신 정보와 자세한 지원자들의 성적 분포를 고려해야 합니다. 또한, 동의대학교 입학처 웹사이트나 모의고사 결과 등을 참고하여 가장 정확한 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.2489959839357429</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.01619433198380567</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.1285140562248996</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 신소재공학과의 최종 등록자의 표준 변환 점수 평균이 448.56점으로, 작년보다 약간 높게 나타났습니다. 하지만 정확한 비교를 위해서는 다음과 같은 요인들을 고려해야 합니다:
+1. 모집 인원과 지원 인원의 변화: 이들 수가 변동되면 평균 점수가 달라질 수 있습니다.
+2. 합격 기준 점수의 변화: 일부 전형에서 합격 기준이 조정되었을 수도 있습니다.
+3. 입학사정관 심사 결과: 서류평가 등 비전공적 요소가 반영되면 평균 점수가 달라질 수 있습니다.
+4. 경쟁률 변동: 경쟁률이 크게 변동했을 경우, 최종 합격者的：
+Assistant: 是的，虽然2023年东国大学新材学部最终注册者的标准转换分数平均值为448.56分，比您提供的447点略高一些，但仍然存在可能性。具体原因可能包括以下几点：
+1. 招生人数和申请人数的变化：如果招生人数或申请人数有所变化，可能会导致平均分略有不同。
+2. 合格分数线的调整：某些类型的入学考试可能调整了合格线标准。
+3. 入学审查结果的影响：非学术因素如文书评估等也可能影响最终录取结果。
+4. 竞争率的变化：如果竞争率有显著变化，可能会导致平均分有所波动。
+因此，在没有更多具体信息的情况下，不能完全排除2024年您的分数达到447点仍有可能被新材学部录取的可能性。建议您密切关注学校发布的最新招生信息，并做好充分准备。</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.2831050228310503</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.08294930875576037</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.2009132420091324</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 수능 성적이 동의대학교 신소재공학과에 충분한지 판단하기 위해서는 몇 가지 요인들을 고려해야 합니다.
+1. **전반적인 경쟁률**: 동의대학교 신소재공학과의 경쟁률을 확인해야 합니다. 2024년도 모집에서 지원 인원이 77명이고 모집 인원이 39명이라는 점을 고려하면, 경쟁률은 약 1.95:1입니다.
+2. **성적 반영 방식**: 동의대학교는 수능 성적이 주요한 평가 요인으로 작용합니다. 전형요소 반영비율에서 수능이 100%를 차지하고 있습니다.
+3. **성적 분포**: 현재 예상되는 4.1~4.2 등급의 성적은 동의대학교 신소재공학과의 평균 및 표준 편차와 비교해볼 필요가 있습니다. 
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 535.29
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차: 0.68
+4. **등급과 점수 간 관계**: 수능 등급을 점수로 변환할 때, 동의대학교는 수능 등급별 변환표를 사용합니다.
+   - 1등급: 139점
+   - 2등급: 131점
+   - 3등급: 123점
+   - 4등급: 115점
+   - 5등급: 107점
+   - 6등급: 99점
+   - 7등급: 91점
+   - 8등급: 83점
+   - 9등급: 75점
+4.3 등급은 대략 123~115 점 사이를 의미합니다.
+5. **경쟁률 및 지원 인원**: 현재 지원 인원이 67명으로, 경쟁률이 약 0.87입니다. 이는 상대적으로 낮은 경쟁률을 보이고 있으므로, 성적이 조금 더 높아지면 충분히 합격 가능성이 있습니다.
+### 결론:
+- **성적 평균과 비교**: 현재 예상되는 4.1~4.2 등급의 성적은 동의대학교 신소재공학과의 평균 점수(535.29)에 비해 약간 낮습니다.
+- **경쟁률 및 지원 인원**: 경쟁률이 낮고, 지원 인원도 적어 이 정도 성적으로 합격 가능성은 있습니다.
+따라서, 현재의 예상 성적이 동의대학교 신소재공학과에 충분한 것으로 보입니다. 하지만 최종 결정을 내리기 위해서는 정확한 수능 점수와 변환점수를 확인해야 합니다. 또한, 다른 평가 요인(면접 등)도 고려해야 하므로, 전반적인 준비를 철저히 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.3583460949464013</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.1259600614439324</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.1776416539050536</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 최종 등록자들의 성적 정보를 요약하면 다음과 같습니다:
+- 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 301.87
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 12.38
+- 영어 등급 평균: 4.13
+- 영어 등급 표준 편차: 0.71
+- 수능 4개 영역 등급 평균: 4.98
+- 수능 4개 영역 등급 표준 편차: 0.25
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 415.80
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차: 10.49
+이 성적은 2024학년도 모집에서 최종 등록자들의 평균 성적을 나타내며, 이는 입시 경쟁력을 판단하는 데 도움이 될 수 있습니다. 하지만 개인의 성적이 이러한 평균치와 얼마나 차이나느냐에 따라 합격 여부가 결정될 수 있으므로, 자신의 실력과 비교하여 참고하시기 바랍니다.
+또한 인공지능학과는 수능 반영 영역 중 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여하고 있으므로, 이 점도 고려해보세요.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.5326633165829145</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.3282828282828283</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.4422110552763819</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 점수는 각 단과대학과 모집단위별로 다르게 평가받을 수 있습니다. 일반적으로 동의대학교의 경우, 수능 성적은 합격 가능성을 결정짓는 중요한 요소 중 하나이지만, 다른 평가 항목들(학생부 교과성적, 서류평가, 면접 등)도 함께 고려됩니다.
+다음은 몇 가지 주요 포인트입니다:
+1. **전형별 성적 기준**: 각 전형별로 수능 점수의 기준이 다릅니다. 예를 들어, 일부 전형에서는 국어, 수학, 영어 등 특정 과목의 성적이 더 중요하게 평가될 수 있습니다.
+2. **평균 성적과 경쟁률**: 동의대학교의 각 단과대학별로 지원 인원과 지원자의 수능 성적 분포를 고려해야 합니다. 예를 들어, 경쟁률이 높은 학과에서는 5.27이라는 점수가 충분히 좋은 성적이 될 수도 있고, 반대로 경쟁률이 낮은 학과에서는 조금 부족할 수 있습니다.
+3. **학생부 교과성적**: 수능 성적 외에도 학생부 교과성적도 중요한 평가 요소입니다. 5.27이라는 점수는 수능에서 좋은 성적이지만, 학생부 교과성적도 함께 고려됩니다.
+4. **서류평가와 면접**: 서류평가와 면접에서도 개인의 특성과 적합성을 평가받습니다. 이 부분에서는 5.27이라는 점수 외에도 지원자의 전반적인 능력과 열정이 중요하게 작용할 수 있습니다.
+따라서, 정확한 답변을 위해서는 동의대학교의 각 단과대학별로 어떤 전형에 지원했는지, 그리고 해당 전형의 성적 기준과 경쟁률 등을 확인해야 합니다. 
+추천되는 방법은 다음과 같습니다:
+1. **동의대학교 입학처 웹사이트**를 방문하여 각 전형별로 필요한 성적 기준을 확인합니다.
+2. **전형별 모집인원과 지원 인원**을 비교하여 경쟁률을 파악합니다.
+3. **학생부 교과성적**을 함께 고려합니다.
+더 자세한 정보나 조언이 필요하시다면, 동의대학교 입학처 또는 관련 컨설팅 서비스를 이용하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.174169741697417</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.04730229120473022</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.09446494464944649</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 수능 등급은 상당히 높은 점수입니다. 동의대학교 소프트웨어공학부에 지원할 때, 다음과 같은 요인들을 고려해볼 필요가 있습니다:
+1. **모집 정원과 지원자 수**: 소프트웨어공학부는 모집 인원이 많지 않고 경쟁률이 높은 학과입니다.
+2. **성적 평균 및 분산**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+   - 표준 편차: 7.35
+3. **성적 분포**:
+   - 최고 점수: 409.26 (가산점 포함)
+   - 최저 점수: 287.81 (가산점 포함)
+4. **등급 평균 및 분산**:
+   - 영어 등급의 평균: 3.77
+   - 수능 4개 영역 등급의 평균: 4.49
+5. **최종 합격자 성적**:
+   - 최고 점수: 462.10 (가산점 포함)
+   - 최저 점수: 307.81 (가산점 포함)
+이러한 정보를 바탕으로, 4.2라는 등급은 상당히 높은 수준이며, 이 정도 성적을 가진 지원자는 충분히 합격 가능성 있는 범위에 속합니다.
+**추천 사항:**
+1. **자기소개서와 면접 준비**: 자기소개서는 개인적인 경험과 열정을 잘 표현해야 합니다. 면접에서는 자신감 있게 자신의 강점과 목표를 설명할 수 있어야 합니다.
+2. **추가 지원 자료**: 프로젝트나 관련 경험이 있다면 이를 제출하여 추가적으로 지원력을 높일 수 있습니다.
+결론적으로, 4.2라는 등급은 충분히 좋은 성적이며, 적절한 준비를 하면 소프트웨어공학부에 합격할 가능성이 큽니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.2597402597402597</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.09399477806788512</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.1610389610389611</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 표준점수를 가지고 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 일반 학생전형에 지원 가능한지 판단하기 위해서는 몇 가지 요소들을 고려해야 합니다.
+1. **성적 산출방법**: 2024학년도 동안 성적 산출 방법이 변경되었으므로, 현재 적용되는 방식을 확인해야 합니다.
+   - 2023년까지의 경우: 반영과목은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목이었습니다.
+   - 2024년부터의 경우: 반영과목은 전 모집단위(한의예과 제외) 12과목으로 확대되었습니다.
+2. **성적 평균**: 화학환경공학부는 공과대학에 속하며, 일반 학생전형의 성적 평균을 확인해야 합니다.
+   - 예를 들어, 2024년도 모집단위별 모집인원에서 화학공학과, 환경공학과, 응용화학과는 각각 정원 내 모집 인원이 있습니다.
+3. **성적 점수 분포**: 지원자의 성적이 3.92라는 표준점수를 가지고 있다면, 이 점수가 해당 학과의 경쟁률과 평균 점수와 비교되어야 합니다.
+   - 예를 들어, 특정 학과의 최종 등록자 중 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균을 확인해야 합니다.
+4. **경쟁률**: 화학환경공학부의 경쟁률을 고려해야 합니다.
+   - 예를 들어, 2024년도 모집단위별 모집인원에서 특정 학과의 지원 인원과 모집 인원을 비교하여 경쟁률을 확인할 수 있습니다.
+5. **전형요소**: 화학환경공학부는 일반 학생전형으로, 서류평가와 면접평가가 함께 이루어지므로, 성적 외에도 전공적합성과 학업역량 등이 고려됩니다.
+따라서, 3.92라는 표준점수가 화학환경공학부의 일반 학생전형에 충분한 점수일지는 다음과 같이 판단해야 합니다:
+- 해당 학과의 평균 성적을 확인합니다.
+- 경쟁률을 고려하여 지원 가능성을 판단합니다.
+**추천 사항:**
+1. **성적 산출방법 확인**: 2024년도 동안 적용되는 성적 산출 방법을 확인하세요.
+2. **학과별 평균 성적 및 경쟁률 확인**: 해당 학과의 최종 등록자들의 성적 분포와 경쟁률을 확인합니다.
+3. **전형요소 평가**: 서류평가와 면접평가에서 좋은 점수를 받기 위한 준비를 합니다.
+**참고 링크:**
+- [동의대학교 입학정보 홈페이지](https://ipsi.deu.ac.kr/main.do)
+위 정보들을 종합적으로 고려하여 지원 가능성을 판단하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.1655172413793103</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.04844290657439446</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.09655172413793105</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 화학환경공학부는 수능 일반학생전형을 통해 지원이 가능합니다.
+화학환경공학부는 공과대학에 속하며, 수능 일반학생전형의 경우 다음과 같은 특징이 있습니다:
+1. 모집군: 나군
+2. 전형명: 수능(일반학생전형)
+3. 지원 자격: 대부분의 고등학교 졸업자 및 검정고시 학생 가능
+수능 성적 4.25는 상당히 좋은 점수입니다. 평균 경쟁률과 충원 합격者的：
+根据提供的信息，东国大学化学环境工学部可以通过普通学生入学考试进行申请。以下是关于该专业的相关信息：
+1. 招生类别：属于理工学院。
+2. 入学考试类型：可以参加普通学生入学考试（一般学生入学考试）。
+您的高考成绩为4.25分，这是一个相当不错的分数。对于化学环境工学部来说，以下是一些参考信息：
+- 该专业的平均竞争比约为1.67左右。
+- 平均录取标准分为390分左右。
+- 支持的科目包括国语、数学和两门选修课的成绩。
+根据这些信息来看，您的成绩应该能够满足普通学生入学考试的要求。但是请注意，最终是否可以被录取还取决于具体的招生计划和其他考生的表现情况。建议您仔细查看东国大学化学环境工学部的具体招生简章，并确保符合所有其他申请要求。如果有疑问，可以直接联系学校进行确认。
+祝您好运！</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.3259911894273128</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.2026431718061674</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 좋은 성적입니다만, 정시 합격 여부는 여러 요소에 따라 달라집니다:
+1. 모집인원과 지원자 수: 영화학과의 모집인원과 지원자의 수에 따라 경쟁률이 결정됩니다.
+2. 전형방법: 각 대학별로 실기고사, 면접 등 다양한 방법을 사용하므로, 해당 학교의 전형요소를 잘 파악해야 합니다.
+3. 전형비율: 수능 4개 영역 (가산점 포함) 표준 변환 점수 합과 같은 요인들이 반영됩니다.
+4. 동점자 처리 기준: 이는 높은 경쟁률 시에 중요합니다.
+5. 지원자의 전체 성적 분포: 다른 지원자의 성적이 어떻게 분포되어 있는지 확인해야 합니다.
+6. 전형요소 비중: 수능과 실기, 면접 등 각 요소의 비율이 다르므로 이를 고려해야 합니다.
+현재 정보만으로는 정확한 예측은 어렵습니다. 하지만 4.2라는 점수는 좋은 성적일 뿐 아니라, 대부분의 영화학과에서는 합격 가능성이 있습니다. 
+추가적으로:
+- 해당 대학의 전형요소와 비율을 꼭 확인하세요.
+- 동점자 처리 기준도 파악해보세요.
+- 지원자의 전체 성적 분포를 조사해보세요.
+이런 정보들을 종합적으로 고려하여 최종적인 판단을 내리시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.3273657289002558</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.1182519280205656</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.1841432225063938</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是面试流程的描述：
+1. 在候考室等待 (Wait in the waiting room)
+2. 确认身份 (Confirm identity)
+3. 移动到考场前 (Move to the examination room entrance) 
+4. 进入考场 (Enter the examination room)
+5. 发表个人动机和学业计划 (Present your motivation and academic plan)
+6. 回答与学业能力、专业适应性相关的通用问题及提问 (Answer general questions related to academic ability and major suitability, as well as follow-up questions)
+7. 对提交的文件真实性进行其他询问 (Further question the authenticity of submitted documents)
+具体步骤如下：
+① 候考室入座等待 ⇨
+② 确认身份 ⇨ 
+③ 移动到考场前 ⇨  
+④ 进入考场 ⇨ 
+⑤ 发表个人动机和学业计划 ⇨ 
+⑥ 回答与学业能力、专业适应性相关的通用问题及提问 ⇨ 
+⑦ 对提交的文件真实性进行其他询问 ⇨ 
+⑧ 退场</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.148936170212766</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.2526315789473684</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.4141930521671437</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.2780356988771585</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.3645132195450205</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2834238911147506</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.1352650919230308</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.2250456170010328</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.2955093176086319</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.1481837868416449</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.2292913279280878</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.3488084716409472</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0.2066503954000947</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.2947794182730267</v>
+      <c r="D305" t="n">
+        <v>0.3310420869635088</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.1871615258806114</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.2729500548247137</v>
       </c>
     </row>
   </sheetData>
